--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_16_36.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_16_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3345917.423201946</v>
+        <v>3343665.343490738</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12561851.30939062</v>
+        <v>12561851.30939063</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283198</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>93.52676208877324</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>20.29515656310126</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247589</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -820,22 +820,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>10.93787135974158</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>71.67037196991727</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,22 +899,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>16.61609021060003</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>245.8056267012311</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1057,22 +1057,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>99.84759100840618</v>
       </c>
       <c r="V7" t="n">
-        <v>226.159252574543</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,16 +1139,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>242.3977510333379</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>129.5398680316083</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,19 +1291,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>120.6353666620236</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>157.7822070347172</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>109.040488224226</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,13 +1774,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,10 +1856,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187871</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2093,10 +2093,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444139</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569556</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128552</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.0286782364136</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T21" t="n">
         <v>188.3046392154443</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922689</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>126.9927435506632</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185657</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>108.906592471253</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444139</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569556</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2412,7 +2412,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128552</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>117.0286782364136</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T24" t="n">
         <v>188.3046392154443</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922689</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892427579</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012194</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444139</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569556</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2649,7 +2649,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128552</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>117.0286782364136</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T27" t="n">
         <v>188.3046392154443</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>101.6969570046975</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922689</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892427578</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012194</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518785</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2886,7 +2886,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>41.33703994142962</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>7.613741235232872</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187871</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>216.5793400412173</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>122.6028762599951</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,19 +3430,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>140.7158229532352</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3667,16 +3667,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3895,16 +3895,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>46.13809394730835</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>178.8076944857614</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>240.06330988836</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>821.1650657389511</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4325,55 +4325,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794322</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794324</v>
+        <v>2424.744041450751</v>
       </c>
       <c r="W2" t="n">
-        <v>2755.806928794324</v>
+        <v>2071.975386180637</v>
       </c>
       <c r="X2" t="n">
-        <v>2735.306770649777</v>
+        <v>1698.509627919557</v>
       </c>
       <c r="Y2" t="n">
-        <v>2345.167438673965</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.543854481107</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.09082519998</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387288</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332733</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601583</v>
       </c>
       <c r="G3" t="n">
-        <v>936.573581468607</v>
+        <v>176.0213023927764</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064745</v>
+        <v>85.51940803064387</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080125</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199863</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.3679798527295</v>
+        <v>560.4166776763434</v>
       </c>
       <c r="C4" t="n">
-        <v>511.4317969248226</v>
+        <v>391.4804947484365</v>
       </c>
       <c r="D4" t="n">
-        <v>361.3151575124868</v>
+        <v>391.4804947484365</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>391.4804947484365</v>
       </c>
       <c r="F4" t="n">
-        <v>66.5121164321834</v>
+        <v>391.4804947484365</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>223.7776581231555</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>77.56047134101325</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915318</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484844</v>
       </c>
       <c r="U4" t="n">
-        <v>1854.900232967364</v>
+        <v>1224.739181610487</v>
       </c>
       <c r="V4" t="n">
-        <v>1600.215744761477</v>
+        <v>970.0546934046005</v>
       </c>
       <c r="W4" t="n">
-        <v>1310.798574724517</v>
+        <v>970.0546934046005</v>
       </c>
       <c r="X4" t="n">
-        <v>1082.809023826499</v>
+        <v>742.0651425065831</v>
       </c>
       <c r="Y4" t="n">
-        <v>862.0164446829692</v>
+        <v>742.0651425065831</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1243.280836875046</v>
+        <v>1274.53911114974</v>
       </c>
       <c r="C5" t="n">
-        <v>874.3183199346347</v>
+        <v>905.5765942093287</v>
       </c>
       <c r="D5" t="n">
-        <v>874.3183199346347</v>
+        <v>547.3108956025783</v>
       </c>
       <c r="E5" t="n">
-        <v>488.5300673363904</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>77.54416254678286</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4574,7 +4574,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4589,28 +4589,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3077.317309789745</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2746.254422446174</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2393.48576717606</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X5" t="n">
-        <v>2020.02000891498</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="Y5" t="n">
-        <v>1629.880676939168</v>
+        <v>1661.138951213862</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4620,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1091.613680441807</v>
+        <v>551.0642295677645</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1837.464090846021</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1837.464090846021</v>
+        <v>1323.155438708629</v>
       </c>
       <c r="V7" t="n">
-        <v>1609.020401376785</v>
+        <v>1068.470950502742</v>
       </c>
       <c r="W7" t="n">
-        <v>1319.603231339825</v>
+        <v>779.0537804657819</v>
       </c>
       <c r="X7" t="n">
-        <v>1091.613680441807</v>
+        <v>551.0642295677645</v>
       </c>
       <c r="Y7" t="n">
-        <v>1091.613680441807</v>
+        <v>551.0642295677645</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1491.569348694472</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C8" t="n">
-        <v>1122.606831754061</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>764.3411331473101</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>764.3411331473101</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>353.3552283577025</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.5429342656</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995485</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734406</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.169188758594</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="9">
@@ -4872,10 +4872,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4884,16 +4884,16 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1767.918581386758</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1478.501411349798</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>1250.51186045178</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>370.0144869816389</v>
       </c>
     </row>
     <row r="11">
@@ -5033,28 +5033,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5078,10 +5078,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>119.290296770379</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2495.978408795858</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5185,16 +5185,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,31 +5297,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5476,10 +5476,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="17">
@@ -5495,16 +5495,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5519,13 +5519,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5595,25 +5595,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5704,19 +5704,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5729,70 +5729,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192549</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111699</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075775</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332382</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014771</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355927</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291067998</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,37 +5814,37 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>314.2396613568979</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>178.4809954028058</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>119.2902967703861</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>119.2902967703861</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969362</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951541</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190827</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
         <v>2319.799627685893</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708874</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429805</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429805</v>
+        <v>766.1780053015053</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429805</v>
+        <v>618.2649117191122</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429805</v>
+        <v>471.3749642212018</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578604</v>
+        <v>304.1788649360818</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000585</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782953</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038332</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797725</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910806</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580255</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580255</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642675</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011271</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="23">
@@ -5975,40 +5975,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638194191</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111864</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.852361107594</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332398</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014788</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355943</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068014</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273881</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273881</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>95.58405025273881</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>95.58405025273881</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438234</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998428</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237714</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732781</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400653</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121584</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121584</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121584</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121584</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270383</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782953</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038332</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797725</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910806</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580255</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832657</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487561</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510502</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.3858538547</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648813</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611853</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138352</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.502065570305</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551898</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611487</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004737</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406492</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168848</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797234</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638196413</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311209</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611076162</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.61155333242</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301481</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355966</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068036</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694732</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.26572885228</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398617</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492602</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474807</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466597</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123026</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852912</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591832</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.37586661602</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6279,49 +6279,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>943.3991132778471</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>768.9460839967201</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>620.0116743354688</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300134</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>314.2396613568984</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>178.4809954028062</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797234</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797234</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797234</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191918</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>923.067041434949</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061499</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.043492616104</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6336,16 +6336,16 @@
         <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>2016.615714228346</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
         <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>1527.226249268402</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>1319.374749062869</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
         <v>1111.614450297915</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400658</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121589</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121589</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121589</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121589</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270388</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797234</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797234</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038337</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.140538179773</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580255</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832657</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487562</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510503</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854701</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648814</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611853</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138356</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703055</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168593</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191923</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349509</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>923.0670414349509</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1550.665004989557</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2102.574735228844</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>695.5020655703109</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C31" t="n">
-        <v>526.5658826424041</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>268.7034100454483</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>101.5073107603283</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6664,7 +6664,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="32">
@@ -6689,10 +6689,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
@@ -6701,19 +6701,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6901,7 +6901,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>697.5276345711974</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>923.4916164683283</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>606.6423399580283</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>459.7523924601179</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7135,10 +7135,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="38">
@@ -7166,58 +7166,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7315,19 +7315,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7400,19 +7400,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>552.8412329032296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C43" t="n">
-        <v>552.8412329032296</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>282.1326295060853</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>140.4207983482833</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7597,22 +7597,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2016.448712673667</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1727.373486017864</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1472.688997811978</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1183.271827775017</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>955.2822768769995</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>734.4896977334694</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="44">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7843,13 +7843,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.570299446029821e-12</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>4.308775558570233e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1.750777300912887e-11</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>57.2291039219422</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>118.3918499711701</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>58.2063328744018</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,13 +23662,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>12.04875628922491</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>13.30196929556064</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012194</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>72.11969353039171</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>144.634190040853</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194812</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.2658363185657</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24601,13 +24601,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>44.73700564187163</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194814</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.2658363185657</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>107.2784330767827</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>132.680971610991</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,25 +25072,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>2.00531331087754</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>57.22910392194223</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>24.80831533903367</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25555,16 +25555,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H40" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25783,16 +25783,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>35.12774237125718</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>38.59775584152683</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>695833.7131767028</v>
+        <v>695833.7131767024</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>695833.7131767023</v>
+        <v>695833.7131767024</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>695833.7131767023</v>
+        <v>695833.7131767024</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>695833.7131767025</v>
+        <v>695833.7131767024</v>
       </c>
     </row>
     <row r="12">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778555</v>
+        <v>738937.5928778558</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778555</v>
+        <v>738937.5928778553</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778553</v>
+        <v>738937.5928778551</v>
       </c>
       <c r="E2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="F2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="G2" t="n">
         <v>726431.9397210054</v>
       </c>
       <c r="H2" t="n">
-        <v>726431.9397210049</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="I2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="J2" t="n">
         <v>726431.939721005</v>
       </c>
-      <c r="J2" t="n">
-        <v>726431.9397210048</v>
-      </c>
       <c r="K2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="L2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="M2" t="n">
         <v>726431.9397210053</v>
       </c>
       <c r="N2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="O2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="P2" t="n">
         <v>726431.9397210053</v>
@@ -26363,10 +26363,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>5.977382704713819e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26381,22 +26381,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-7.707559419698856e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.202397279</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>7.374192136921919e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.150924617832061e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,43 +26415,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813254</v>
+        <v>89744.12305813264</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813252</v>
+        <v>89744.12305813248</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813251</v>
+        <v>89744.12305813248</v>
       </c>
       <c r="E4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="F4" t="n">
+        <v>10557.08828678124</v>
+      </c>
+      <c r="G4" t="n">
         <v>10557.08828678121</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>10557.08828678123</v>
-      </c>
-      <c r="H4" t="n">
-        <v>10557.08828678176</v>
       </c>
       <c r="I4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="J4" t="n">
-        <v>10557.0882867812</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="K4" t="n">
-        <v>10557.08828678123</v>
+        <v>10557.08828678128</v>
       </c>
       <c r="L4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="M4" t="n">
-        <v>10557.0882867812</v>
+        <v>10557.08828678127</v>
       </c>
       <c r="N4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678123</v>
       </c>
       <c r="O4" t="n">
         <v>10557.08828678121</v>
@@ -26488,10 +26488,10 @@
         <v>101122.5298239071</v>
       </c>
       <c r="I5" t="n">
-        <v>101122.529823907</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
-        <v>101122.5298239074</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-787485.216469263</v>
+        <v>-787485.216469262</v>
       </c>
       <c r="C6" t="n">
-        <v>541259.5292583298</v>
+        <v>541259.529258329</v>
       </c>
       <c r="D6" t="n">
-        <v>541259.5292583295</v>
+        <v>541259.5292583293</v>
       </c>
       <c r="E6" t="n">
-        <v>289339.859802962</v>
+        <v>289305.1218775261</v>
       </c>
       <c r="F6" t="n">
-        <v>614752.3216103171</v>
+        <v>614717.5836848813</v>
       </c>
       <c r="G6" t="n">
-        <v>614752.3216103171</v>
+        <v>614717.5836848815</v>
       </c>
       <c r="H6" t="n">
-        <v>614752.3216103185</v>
+        <v>614717.5836848812</v>
       </c>
       <c r="I6" t="n">
-        <v>614752.3216103168</v>
+        <v>614717.5836848816</v>
       </c>
       <c r="J6" t="n">
-        <v>397221.1192130372</v>
+        <v>397186.3812876035</v>
       </c>
       <c r="K6" t="n">
-        <v>614752.3216103165</v>
+        <v>614717.5836848818</v>
       </c>
       <c r="L6" t="n">
-        <v>614752.3216103169</v>
+        <v>614717.5836848812</v>
       </c>
       <c r="M6" t="n">
-        <v>529697.2936748052</v>
+        <v>529662.5557493697</v>
       </c>
       <c r="N6" t="n">
-        <v>614752.3216103171</v>
+        <v>614717.5836848813</v>
       </c>
       <c r="O6" t="n">
-        <v>614752.3216103171</v>
+        <v>614717.5836848813</v>
       </c>
       <c r="P6" t="n">
-        <v>614752.321610317</v>
+        <v>614717.5836848813</v>
       </c>
     </row>
   </sheetData>
@@ -26753,13 +26753,13 @@
         <v>1367.975500341674</v>
       </c>
       <c r="H3" t="n">
-        <v>1367.975500341671</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="I3" t="n">
-        <v>1367.975500341671</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="J3" t="n">
-        <v>1367.975500341671</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="K3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26805,13 +26805,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099654</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26960,7 +26960,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26975,16 +26975,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.715987294757119e-12</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
-        <v>3.183231456205249e-12</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022986</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>289.2070795747073</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27436,13 +27436,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>349.4359441153678</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27540,22 +27540,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>85.41454905009654</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>214.5414662356956</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,22 +27619,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>365.3142798616618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>5.189545257670886</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27777,22 +27777,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,16 +27822,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>186.3642471972067</v>
       </c>
       <c r="V7" t="n">
-        <v>25.97839074928504</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,16 +27859,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>168.5239746201155</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>240.1912326468607</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,19 +28011,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>24.78568136090762</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>94.3554362891108</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.591615728102624e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.70530256582424e-13</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31841,16 +31841,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338208</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -31859,10 +31859,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>160.6314956130963</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32075,19 +32075,19 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>641.2555750770852</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32096,7 +32096,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32315,28 +32315,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>346.9084613860368</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.49939899634842</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135327</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067227</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663272</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.544175081756</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162541</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175653</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159403</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460007</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236489</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669209</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043717</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292897</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651522</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078735</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659443</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521093</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>163.5723821283128</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>460.9249101897664</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862103</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071767</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437227</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214685</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485282</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742425</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937731</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.193581438727595</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189898</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121565</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869258</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796257</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355171</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588144</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392036</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.493960610678</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920049</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417308</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515923</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
-        <v>110.9181446670475</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532756</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
-        <v>10.5401391009932</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467218</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.49939899634842</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135327</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067393</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663272</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.544175081756</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162541</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175653</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159403</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460007</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236489</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669209</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043717</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292897</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651522</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078735</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,13 +32777,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659443</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521093</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007747</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
@@ -32792,34 +32792,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>732.4825987614977</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071767</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437227</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214685</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485282</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418556</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742425</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937731</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.193581438727595</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189898</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121565</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869258</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796257</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355171</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588144</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392036</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.493960610678</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920049</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417308</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515923</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
-        <v>110.9181446670475</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532756</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
-        <v>10.5401391009932</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467218</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.49939899634842</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135327</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067227</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663272</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.544175081756</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162541</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175653</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159403</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460007</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236489</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669209</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043717</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292897</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651522</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078735</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659443</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521093</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422575</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473057</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862103</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071767</v>
+        <v>230.1272937575231</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319912</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742425</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937731</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.193581438727595</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189898</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121565</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869258</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796257</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355171</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588144</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392036</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.493960610678</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920049</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417308</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515923</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
-        <v>110.9181446670475</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532756</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
-        <v>10.5401391009932</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467218</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,37 +33172,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33211,10 +33211,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,40 +33257,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>316.3837382263857</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33336,28 +33336,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33366,7 +33366,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,10 +33731,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>485.1127032082914</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33898,7 +33898,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M38" t="n">
         <v>965.6463440175675</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>622.4211036182646</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,19 +34442,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34463,13 +34463,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>314.5984986256103</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35489,16 +35489,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394658</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35507,10 +35507,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>20.64972152707474</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35744,7 +35744,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236316773</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396409</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367754</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462669</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902926</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193493</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243139</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683968</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924714</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902396</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>25.73094315395379</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>322.3705304098922</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764192</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238434</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992783</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071383</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625067</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295296</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096342</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191306</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010442</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899065</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060446</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066243</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998979</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.53969023633337</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396409</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367754</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462669</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902926</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193493</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243139</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683793</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924714</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902396</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774673</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -36440,25 +36440,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>590.3485648394794</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238434</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992783</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071383</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625067</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789168</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295296</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096342</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191306</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010442</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899065</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060446</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066243</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998979</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236316773</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396409</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367754</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462669</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902926</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193493</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243139</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683793</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924714</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902396</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678985</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674315</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.412613764192</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238434</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875467</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295296</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096342</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191306</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010442</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899065</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060446</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066243</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998979</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,31 +36826,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>182.4093308120554</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36996,19 +36996,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,10 +37379,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>342.516458763847</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37546,7 +37546,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M38" t="n">
         <v>735.3001107902948</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>483.8667238383904</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,19 +38090,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38111,13 +38111,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
